--- a/network/network.xlsx
+++ b/network/network.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.instagram.com/dishant2328/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towqeer Sultani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/sultani_flims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/people/Sultani-films/100095216757954/?mibextid=LQQJ4d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@manvsworld5722</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,6 +186,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -193,13 +209,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.62"/>
@@ -274,9 +290,32 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://curiouswanderust.wordpress.com"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://www.instagram.com/sultani_flims"/>
+    <hyperlink ref="G4" r:id="rId3" display="https://www.facebook.com/people/Sultani-films/100095216757954/?mibextid=LQQJ4d"/>
+    <hyperlink ref="H4" r:id="rId4" display="https://www.youtube.com/@manvsworld5722"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/network/network.xlsx
+++ b/network/network.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/@manvsworld5722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasanka Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/sasanka74/</t>
   </si>
 </sst>
 </file>
@@ -209,15 +215,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.42"/>
@@ -310,12 +316,27 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://curiouswanderust.wordpress.com"/>
     <hyperlink ref="E4" r:id="rId2" display="https://www.instagram.com/sultani_flims"/>
     <hyperlink ref="G4" r:id="rId3" display="https://www.facebook.com/people/Sultani-films/100095216757954/?mibextid=LQQJ4d"/>
     <hyperlink ref="H4" r:id="rId4" display="https://www.youtube.com/@manvsworld5722"/>
+    <hyperlink ref="E5" r:id="rId5" display="https://www.instagram.com/sasanka74/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/network/network.xlsx
+++ b/network/network.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -55,6 +55,24 @@
     <t xml:space="preserve">TikTok</t>
   </si>
   <si>
+    <t xml:space="preserve">Dishant Khatri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instagram feed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/dishant2328/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasanka Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/sasanka74/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/sasanka74</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swati Gaikwad</t>
   </si>
   <si>
@@ -67,15 +85,6 @@
     <t xml:space="preserve">https://www.instagram.com/curiouswanderust/</t>
   </si>
   <si>
-    <t xml:space="preserve">Dishant Khatri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instagram feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.instagram.com/dishant2328/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Towqeer Sultani</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/@manvsworld5722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sasanka Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.instagram.com/sasanka74/</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -122,6 +125,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,29 +183,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -207,6 +221,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -218,125 +248,128 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.42"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://curiouswanderust.wordpress.com"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://www.instagram.com/sultani_flims"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://www.facebook.com/people/Sultani-films/100095216757954/?mibextid=LQQJ4d"/>
-    <hyperlink ref="H4" r:id="rId4" display="https://www.youtube.com/@manvsworld5722"/>
-    <hyperlink ref="E5" r:id="rId5" display="https://www.instagram.com/sasanka74/"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://www.instagram.com/sasanka74/"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://curiouswanderust.wordpress.com"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://www.instagram.com/sultani_flims"/>
+    <hyperlink ref="G5" r:id="rId4" display="https://www.facebook.com/people/Sultani-films/100095216757954/?mibextid=LQQJ4d"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://www.youtube.com/@manvsworld5722"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/network/network.xlsx
+++ b/network/network.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/sasanka74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shalabh Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/yogajigyasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/profile.php?id=100082865347914&amp;mibextid=ZbWKwL</t>
   </si>
   <si>
     <t xml:space="preserve">Swati Gaikwad</t>
@@ -221,22 +233,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -245,15 +241,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.42"/>
@@ -327,49 +323,67 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://www.instagram.com/sasanka74/"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://curiouswanderust.wordpress.com"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://www.instagram.com/sultani_flims"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.facebook.com/people/Sultani-films/100095216757954/?mibextid=LQQJ4d"/>
-    <hyperlink ref="H5" r:id="rId5" display="https://www.youtube.com/@manvsworld5722"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://www.instagram.com/yogajigyasa"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://curiouswanderust.wordpress.com"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://www.instagram.com/sultani_flims"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://www.facebook.com/people/Sultani-films/100095216757954/?mibextid=LQQJ4d"/>
+    <hyperlink ref="H6" r:id="rId6" display="https://www.youtube.com/@manvsworld5722"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
